--- a/参考/参考/资料/企划20200806.xlsx
+++ b/参考/参考/资料/企划20200806.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hqyzsy\IdeaProjects\micro_machinery\参考\参考\资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8C9B16-84F0-4DB7-AF05-37BDA42384F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6216C33D-7354-4858-9EDB-D7D1F4AF0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="方块列表" sheetId="6" r:id="rId1"/>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="932">
   <si>
     <t>矿石</t>
   </si>
@@ -2478,38 +2478,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>传送带的连接方式类似原版铁轨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落物落在传送带上会被插入传送带</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>拿着物品，对着传送带右键可以放上物品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送带仅有一个出口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用锤子可以断开传送带之间的连接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤子右键传送带的连接处可以断开连接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>不同等级的传送带具有不同的运载速度：1x，4x，16x（每一格传送带同时能运送的物品堆叠数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>跨高度传送带会被对角线的实心方块切断</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>流体管道也是按tick向周围的流体管道传输流体</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2527,14 +2499,6 @@
   </si>
   <si>
     <t>使用扳手（？）锤子(?)右键管道可以将管道打开，打开的一侧所对应的方块，如果是空气方块那么当液体量足够时输会尝试放置液体方块，同时堵塞物可被从打开的一侧推出（掉落物形式）（液体加农炮可能性存疑）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>漏斗可以和传送带互动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>空手shift右键可以取下物品</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -3805,22 +3769,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>传送带有一个主动输出口，会尝试连接其他传送带或者容器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分流器只有一个输入端，会尝试连接其他传送带或者容器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤子右键分流器的连接处可以断开连接</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>机械臂交互范围如图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>机械臂可以打开gui，配置过滤器，将对应的运行卡插入gui，机械臂即开始工作</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3837,10 +3785,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>分流器会按照从输入端开始的逆时针顺序，优先满足第一个目标的需求，多余部分优先满足第二个目标需求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2022.11.14新增</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -3889,6 +3833,40 @@
   </si>
   <si>
     <t>配置卡可以快速复制过滤器给单向阀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带自带四个朝向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带具有六种状态，分别是：1、straight直行；
+2、left/right左右转向；
+3、up/down上下运输；
+4、merge合并；
+5、divide分流。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>merge：（若传送带为北向）由东西方向输入（优先接受西方的物品），并向北输出，南部不连接传送带
+divide：（若传送带为北向），由南方输入，按照顺时针顺序，当前为西、北、东的顺序，依次输出物品（若有可连接的容器或传送带）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送带的朝向即为主动输出方向</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械臂交互范围如图↑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿着物品，对着传送带右键可以放上物品；
+空手shift右键可以取下物品</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏斗可以与传送带交互，但是传送带只能接受来自漏斗的物品（若传送带朝向漏斗，则依然将漏斗视为容器）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3896,7 +3874,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4062,6 +4040,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4178,7 +4165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4186,23 +4173,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4213,16 +4191,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4272,7 +4246,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4292,7 +4266,7 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4310,11 +4284,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4328,10 +4303,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4355,23 +4327,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>178882</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25399</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438149</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>193221</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C5C7DF-0619-4AD5-A3F9-B0F3286EE70B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A6FE07-FE96-E8F3-E320-21F25B719C60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,8 +4366,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11239500" y="4623882"/>
-          <a:ext cx="2622549" cy="2316668"/>
+          <a:off x="8913585" y="23131"/>
+          <a:ext cx="2794000" cy="2325461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4416,23 +4388,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>638174</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>509031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>628649</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>462642</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>332014</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A6FE07-FE96-E8F3-E320-21F25B719C60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70587EF7-D307-6971-23C2-9CC357E11459}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4455,8 +4427,69 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11271250" y="2060574"/>
-          <a:ext cx="2762250" cy="2301875"/>
+          <a:off x="12387942" y="4280931"/>
+          <a:ext cx="2906486" cy="2876426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>239486</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>429985</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1450060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15C7981-640F-5A04-A442-1E381BBEE37B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12360729" y="718894"/>
+          <a:ext cx="2901042" cy="2886537"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4739,116 +4772,116 @@
   <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q13" sqref="Q13"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="12.75" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.2109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.2109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.2109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.25" customWidth="1"/>
-    <col min="19" max="19" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.2109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.2109375" customWidth="1"/>
+    <col min="19" max="19" width="12.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T1" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>373</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>763</v>
+      <c r="E2" s="6" t="s">
+        <v>754</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="42" t="s">
+      <c r="G2" s="35" t="s">
         <v>399</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="36" t="s">
         <v>393</v>
       </c>
       <c r="J2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>717</v>
+      <c r="K2" s="6" t="s">
+        <v>708</v>
       </c>
       <c r="L2" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="36" t="s">
         <v>425</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="43" t="s">
-        <v>716</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>932</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="R2" s="8"/>
+      <c r="O2" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="R2" s="6"/>
       <c r="S2" t="s">
         <v>16</v>
       </c>
@@ -4856,59 +4889,59 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>397</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>764</v>
+      <c r="E3" s="6" t="s">
+        <v>755</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="35" t="s">
         <v>400</v>
       </c>
       <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="36" t="s">
         <v>394</v>
       </c>
       <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="6" t="s">
         <v>389</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="36" t="s">
         <v>426</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" s="43" t="s">
-        <v>718</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="R3" s="8"/>
+      <c r="O3" s="36" t="s">
+        <v>709</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="R3" s="6"/>
       <c r="S3" t="s">
         <v>24</v>
       </c>
@@ -4916,59 +4949,59 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>398</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>765</v>
+      <c r="E4" s="6" t="s">
+        <v>756</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="35" t="s">
         <v>401</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="36" t="s">
         <v>395</v>
       </c>
       <c r="J4" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>390</v>
       </c>
       <c r="L4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>721</v>
+      <c r="M4" s="6" t="s">
+        <v>712</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
       </c>
-      <c r="O4" s="43" t="s">
-        <v>720</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>934</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="R4" s="8"/>
+      <c r="O4" s="36" t="s">
+        <v>711</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="R4" s="6"/>
       <c r="S4" t="s">
         <v>32</v>
       </c>
@@ -4976,60 +5009,60 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="26.6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>374</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>766</v>
+      <c r="E5" s="6" t="s">
+        <v>757</v>
       </c>
       <c r="F5" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="35" t="s">
         <v>402</v>
       </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="36" t="s">
         <v>396</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="6" t="s">
         <v>391</v>
       </c>
       <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="36" t="s">
         <v>637</v>
       </c>
       <c r="N5" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="43" t="s">
-        <v>713</v>
+      <c r="O5" s="36" t="s">
+        <v>704</v>
       </c>
       <c r="P5" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="R5" s="49" t="s">
-        <v>814</v>
+      <c r="Q5" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="R5" s="42" t="s">
+        <v>805</v>
       </c>
       <c r="S5" t="s">
         <v>41</v>
@@ -5038,54 +5071,54 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>375</v>
       </c>
       <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>767</v>
+      <c r="E6" s="6" t="s">
+        <v>758</v>
       </c>
       <c r="F6" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="G6" s="35" t="s">
         <v>403</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="6" t="s">
         <v>392</v>
       </c>
       <c r="L6" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="43" t="s">
-        <v>710</v>
+      <c r="M6" s="36" t="s">
+        <v>701</v>
       </c>
       <c r="N6" t="s">
         <v>47</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="36" t="s">
         <v>420</v>
       </c>
       <c r="P6" t="s">
         <v>48</v>
       </c>
-      <c r="Q6" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="R6" s="50" t="s">
-        <v>815</v>
+      <c r="Q6" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>806</v>
       </c>
       <c r="S6" t="s">
         <v>49</v>
@@ -5094,47 +5127,47 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>376</v>
       </c>
       <c r="D7" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>768</v>
+      <c r="E7" s="6" t="s">
+        <v>759</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="35" t="s">
         <v>404</v>
       </c>
       <c r="L7" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="43" t="s">
+      <c r="M7" s="36" t="s">
         <v>429</v>
       </c>
       <c r="N7" t="s">
         <v>54</v>
       </c>
-      <c r="O7" s="43" t="s">
+      <c r="O7" s="36" t="s">
         <v>421</v>
       </c>
       <c r="P7" t="s">
         <v>55</v>
       </c>
-      <c r="Q7" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="R7" s="8"/>
+      <c r="Q7" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="R7" s="6"/>
       <c r="S7" t="s">
         <v>56</v>
       </c>
@@ -5142,47 +5175,47 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>377</v>
       </c>
       <c r="D8" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>769</v>
+      <c r="E8" s="6" t="s">
+        <v>760</v>
       </c>
       <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>715</v>
-      </c>
-      <c r="M8" s="43" t="s">
+      <c r="L8" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="M8" s="36" t="s">
         <v>424</v>
       </c>
       <c r="N8" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="36" t="s">
         <v>422</v>
       </c>
       <c r="P8" t="s">
         <v>61</v>
       </c>
-      <c r="Q8" s="8" t="s">
+      <c r="Q8" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="R8" s="8"/>
+      <c r="R8" s="6"/>
       <c r="S8" t="s">
         <v>62</v>
       </c>
@@ -5190,47 +5223,47 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>378</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>780</v>
+      <c r="E9" s="6" t="s">
+        <v>771</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="6" t="s">
         <v>428</v>
       </c>
       <c r="N9" t="s">
         <v>66</v>
       </c>
-      <c r="O9" s="43" t="s">
+      <c r="O9" s="36" t="s">
         <v>423</v>
       </c>
       <c r="P9" t="s">
         <v>67</v>
       </c>
-      <c r="Q9" s="8" t="s">
+      <c r="Q9" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="R9" s="8"/>
+      <c r="R9" s="6"/>
       <c r="S9" t="s">
         <v>110</v>
       </c>
@@ -5238,41 +5271,41 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>379</v>
       </c>
       <c r="D10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>770</v>
+      <c r="E10" s="6" t="s">
+        <v>761</v>
       </c>
       <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="42" t="s">
+      <c r="G10" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="O10" s="8" t="s">
-        <v>722</v>
+      <c r="O10" s="6" t="s">
+        <v>713</v>
       </c>
       <c r="P10" t="s">
         <v>72</v>
       </c>
-      <c r="Q10" s="8" t="s">
+      <c r="Q10" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="R10" s="8"/>
+      <c r="R10" s="6"/>
       <c r="S10" t="s">
         <v>68</v>
       </c>
@@ -5280,35 +5313,35 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>380</v>
       </c>
       <c r="D11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>771</v>
+      <c r="E11" s="6" t="s">
+        <v>762</v>
       </c>
       <c r="F11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="42" t="s">
+      <c r="G11" s="35" t="s">
         <v>407</v>
       </c>
       <c r="P11" t="s">
         <v>77</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="Q11" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="R11" s="8"/>
+      <c r="R11" s="6"/>
       <c r="S11" t="s">
         <v>73</v>
       </c>
@@ -5316,38 +5349,38 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>381</v>
       </c>
       <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>772</v>
+      <c r="E12" s="6" t="s">
+        <v>763</v>
       </c>
       <c r="F12" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="35" t="s">
         <v>408</v>
       </c>
       <c r="N12" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="P12" t="s">
         <v>82</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="R12" s="8"/>
+      <c r="R12" s="6"/>
       <c r="S12" t="s">
         <v>78</v>
       </c>
@@ -5355,38 +5388,38 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>386</v>
       </c>
       <c r="D13" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>773</v>
+      <c r="E13" s="6" t="s">
+        <v>764</v>
       </c>
       <c r="F13" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="35" t="s">
         <v>411</v>
       </c>
       <c r="N13" t="s">
-        <v>809</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="Q13" s="43" t="s">
-        <v>695</v>
-      </c>
-      <c r="R13" s="43"/>
+        <v>800</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>686</v>
+      </c>
+      <c r="R13" s="36"/>
       <c r="S13" t="s">
         <v>90</v>
       </c>
@@ -5394,30 +5427,30 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>382</v>
       </c>
       <c r="D14" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>774</v>
+      <c r="E14" s="6" t="s">
+        <v>765</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="42" t="s">
+      <c r="G14" s="35" t="s">
         <v>412</v>
       </c>
       <c r="N14" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="S14" t="s">
         <v>94</v>
@@ -5426,26 +5459,26 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>383</v>
       </c>
       <c r="D15" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>775</v>
+      <c r="E15" s="6" t="s">
+        <v>766</v>
       </c>
       <c r="F15" t="s">
         <v>93</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="35" t="s">
         <v>413</v>
       </c>
       <c r="S15" t="s">
@@ -5455,30 +5488,30 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>384</v>
       </c>
       <c r="D16" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>776</v>
+      <c r="E16" s="6" t="s">
+        <v>767</v>
       </c>
       <c r="F16" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="N16" s="7" t="s">
-        <v>838</v>
+      <c r="N16" s="5" t="s">
+        <v>829</v>
       </c>
       <c r="S16" t="s">
         <v>102</v>
@@ -5487,33 +5520,33 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>385</v>
       </c>
       <c r="D17" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>777</v>
+      <c r="E17" s="6" t="s">
+        <v>768</v>
       </c>
       <c r="F17" t="s">
         <v>101</v>
       </c>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>839</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>844</v>
+      <c r="N17" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>835</v>
       </c>
       <c r="S17" t="s">
         <v>105</v>
@@ -5522,33 +5555,33 @@
         <v>933</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>388</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>778</v>
+      <c r="E18" s="6" t="s">
+        <v>769</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="42" t="s">
+      <c r="G18" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>840</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>843</v>
+      <c r="N18" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>834</v>
       </c>
       <c r="S18" t="s">
         <v>108</v>
@@ -5557,20 +5590,20 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="E19" s="8" t="s">
-        <v>779</v>
+      <c r="E19" s="6" t="s">
+        <v>770</v>
       </c>
       <c r="F19" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="G19" s="35" t="s">
         <v>418</v>
       </c>
       <c r="S19" t="s">
@@ -5580,41 +5613,41 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="F20" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="42" t="s">
+      <c r="G20" s="35" t="s">
         <v>409</v>
       </c>
-      <c r="N20" s="7" t="s">
-        <v>926</v>
-      </c>
-      <c r="S20" s="7" t="s">
+      <c r="N20" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="S20" s="5" t="s">
         <v>419</v>
       </c>
       <c r="T20">
         <v>1337</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>111</v>
       </c>
-      <c r="G21" s="42" t="s">
+      <c r="G21" s="35" t="s">
         <v>410</v>
       </c>
-      <c r="N21" s="7" t="s">
-        <v>927</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>930</v>
+      <c r="N21" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>916</v>
       </c>
       <c r="S21" t="s">
         <v>86</v>
@@ -5623,15 +5656,15 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="N22" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>929</v>
+      <c r="N22" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>915</v>
       </c>
       <c r="S22" t="s">
         <v>113</v>
@@ -5640,7 +5673,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5651,7 +5684,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5672,2004 +5705,1614 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL16" sqref="AL16"/>
+      <selection pane="topRight" activeCell="AM28" sqref="AM28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" customWidth="1"/>
-    <col min="13" max="13" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="14.2109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+    <col min="17" max="17" width="15.2109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="19" max="19" width="29.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.75" customWidth="1"/>
-    <col min="21" max="21" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.75" customWidth="1"/>
-    <col min="23" max="23" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.75" customWidth="1"/>
-    <col min="25" max="25" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.75" customWidth="1"/>
-    <col min="27" max="27" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.75" customWidth="1"/>
-    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.75" customWidth="1"/>
-    <col min="31" max="31" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.75" customWidth="1"/>
-    <col min="33" max="33" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="19.2109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7109375" customWidth="1"/>
+    <col min="31" max="31" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" customWidth="1"/>
+    <col min="33" max="33" width="20.2109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.2109375" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15" customWidth="1"/>
-    <col min="37" max="37" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:37" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="F2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="H2" t="s">
         <v>137</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" t="s">
         <v>139</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" t="s">
         <v>140</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>711</v>
-      </c>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="P2" t="s">
         <v>141</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>712</v>
-      </c>
-      <c r="R2" s="5" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="R2" t="s">
         <v>142</v>
       </c>
-      <c r="S2" s="45" t="s">
-        <v>726</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="38" t="s">
+        <v>717</v>
+      </c>
+      <c r="T2" t="s">
         <v>178</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="X2" s="5" t="s">
+      <c r="U2" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="X2" t="s">
         <v>145</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>714</v>
-      </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Y2" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="Z2" t="s">
         <v>146</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="38" t="s">
         <v>632</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" t="s">
         <v>129</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AD2" t="s">
         <v>147</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" t="s">
         <v>148</v>
       </c>
-      <c r="AG2" s="43" t="s">
+      <c r="AG2" s="36" t="s">
         <v>430</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" t="s">
         <v>149</v>
       </c>
-      <c r="AI2" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AI2" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>150</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="6" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" t="s">
         <v>153</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>732</v>
-      </c>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="L3" t="s">
         <v>156</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" t="s">
         <v>158</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" t="s">
         <v>159</v>
       </c>
-      <c r="S3" s="45" t="s">
-        <v>781</v>
-      </c>
-      <c r="T3" s="5" t="s">
+      <c r="S3" s="38" t="s">
+        <v>772</v>
+      </c>
+      <c r="T3" t="s">
         <v>194</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="V3" s="10" t="s">
+      <c r="U3" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="V3" t="s">
         <v>583</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" t="s">
         <v>162</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" t="s">
         <v>163</v>
       </c>
-      <c r="AA3" s="45" t="s">
+      <c r="AA3" s="38" t="s">
         <v>633</v>
       </c>
-      <c r="AB3" s="5" t="s">
+      <c r="AB3" t="s">
         <v>164</v>
       </c>
-      <c r="AC3" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="AD3" s="5" t="s">
+      <c r="AC3" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD3" t="s">
         <v>165</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" t="s">
         <v>166</v>
       </c>
-      <c r="AG3" s="43" t="s">
+      <c r="AG3" s="36" t="s">
         <v>431</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" t="s">
         <v>167</v>
       </c>
-      <c r="AI3" s="8" t="s">
+      <c r="AI3" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" t="s">
         <v>168</v>
       </c>
-      <c r="AK3" s="8" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AK3" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="F4" t="s">
         <v>171</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>748</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="H4" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>733</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="L4" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" t="s">
         <v>175</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" t="s">
         <v>176</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" t="s">
         <v>177</v>
       </c>
-      <c r="S4" s="45" t="s">
-        <v>782</v>
-      </c>
-      <c r="T4" s="5" t="s">
+      <c r="S4" s="38" t="s">
+        <v>773</v>
+      </c>
+      <c r="T4" t="s">
         <v>228</v>
       </c>
-      <c r="U4" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5" t="s">
+      <c r="U4" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" t="s">
         <v>180</v>
       </c>
-      <c r="AA4" s="45" t="s">
+      <c r="AA4" s="38" t="s">
         <v>512</v>
       </c>
-      <c r="AB4" s="5" t="s">
+      <c r="AB4" t="s">
         <v>181</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AC4" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AE4" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" t="s">
         <v>183</v>
       </c>
-      <c r="AG4" s="43" t="s">
+      <c r="AG4" s="36" t="s">
         <v>432</v>
       </c>
       <c r="AH4" t="s">
         <v>184</v>
       </c>
-      <c r="AI4" s="8" t="s">
+      <c r="AI4" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" t="s">
         <v>202</v>
       </c>
-      <c r="AK4" s="43" t="s">
+      <c r="AK4" s="36" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" t="s">
         <v>186</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" t="s">
         <v>187</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="H5" t="s">
         <v>188</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>189</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="L5" t="s">
         <v>190</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" t="s">
         <v>191</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" t="s">
         <v>192</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="Q5" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" t="s">
         <v>193</v>
       </c>
-      <c r="S5" s="45" t="s">
-        <v>783</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5" t="s">
+      <c r="S5" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="X5" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="9" t="s">
+      <c r="Y5" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" t="s">
         <v>197</v>
       </c>
-      <c r="AA5" s="45" t="s">
+      <c r="AA5" s="38" t="s">
         <v>508</v>
       </c>
-      <c r="AB5" s="5" t="s">
+      <c r="AB5" t="s">
         <v>198</v>
       </c>
-      <c r="AC5" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="AD5" s="5" t="s">
+      <c r="AC5" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD5" t="s">
         <v>199</v>
       </c>
-      <c r="AE5" s="8" t="s">
+      <c r="AE5" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="AF5" s="38" t="s">
+      <c r="AF5" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AG5" s="6" t="s">
         <v>433</v>
       </c>
       <c r="AH5" t="s">
         <v>201</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AI5" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="AJ5" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK5" s="6" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>203</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="D6" t="s">
         <v>204</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="H6" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>207</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>735</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="L6" t="s">
         <v>208</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" t="s">
         <v>209</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>789</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="O6" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="P6" t="s">
         <v>210</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" t="s">
         <v>211</v>
       </c>
-      <c r="S6" s="45" t="s">
-        <v>784</v>
-      </c>
-      <c r="T6" s="5" t="s">
+      <c r="S6" s="38" t="s">
+        <v>775</v>
+      </c>
+      <c r="T6" t="s">
         <v>254</v>
       </c>
-      <c r="U6" s="9" t="s">
-        <v>730</v>
-      </c>
-      <c r="V6" s="5" t="s">
+      <c r="U6" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="V6" t="s">
         <v>213</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" t="s">
         <v>214</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" t="s">
         <v>215</v>
       </c>
-      <c r="AA6" s="45" t="s">
+      <c r="AA6" s="38" t="s">
         <v>505</v>
       </c>
-      <c r="AB6" s="5" t="s">
+      <c r="AB6" t="s">
         <v>216</v>
       </c>
-      <c r="AC6" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AC6" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="AD6" t="s">
         <v>217</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AE6" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="AF6" s="5" t="s">
+      <c r="AF6" t="s">
         <v>218</v>
       </c>
-      <c r="AG6" s="43" t="s">
+      <c r="AG6" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="AJ6" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ6" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" t="s">
         <v>221</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" t="s">
         <v>222</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="G7" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="H7" t="s">
         <v>223</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>224</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>736</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="K7" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="L7" t="s">
         <v>225</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="P7" t="s">
         <v>226</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" t="s">
         <v>227</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="38" t="s">
         <v>477</v>
       </c>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5" t="s">
+      <c r="X7" t="s">
         <v>229</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" t="s">
         <v>230</v>
       </c>
-      <c r="AA7" s="45" t="s">
+      <c r="AA7" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="AB7" s="5" t="s">
+      <c r="AB7" t="s">
         <v>231</v>
       </c>
-      <c r="AC7" s="43" t="s">
+      <c r="AC7" s="36" t="s">
         <v>628</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" t="s">
         <v>232</v>
       </c>
-      <c r="AG7" s="43" t="s">
+      <c r="AG7" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="AJ7" s="5" t="s">
+      <c r="AJ7" t="s">
         <v>259</v>
       </c>
-      <c r="AK7" s="8" t="s">
+      <c r="AK7" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>793</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="D8" t="s">
         <v>234</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" t="s">
         <v>235</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="H8" s="5" t="s">
+      <c r="G8" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="H8" t="s">
         <v>236</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>237</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="L8" s="5" t="s">
+      <c r="K8" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="L8" t="s">
         <v>238</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="P8" t="s">
         <v>239</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" t="s">
         <v>240</v>
       </c>
-      <c r="S8" s="45" t="s">
-        <v>785</v>
-      </c>
-      <c r="T8" s="10" t="s">
+      <c r="S8" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="T8" t="s">
         <v>585</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="V8" s="5"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="5" t="s">
+      <c r="W8" s="6"/>
+      <c r="X8" t="s">
         <v>242</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="Y8" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" t="s">
         <v>243</v>
       </c>
-      <c r="AA8" s="45" t="s">
+      <c r="AA8" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="AB8" s="5" t="s">
+      <c r="AB8" t="s">
         <v>244</v>
       </c>
-      <c r="AC8" s="43" t="s">
+      <c r="AC8" s="36" t="s">
         <v>500</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AF8" t="s">
         <v>245</v>
       </c>
-      <c r="AG8" s="43" t="s">
+      <c r="AG8" s="36" t="s">
         <v>435</v>
       </c>
-      <c r="AJ8" s="5" t="s">
+      <c r="AJ8" t="s">
         <v>272</v>
       </c>
-      <c r="AK8" s="43" t="s">
+      <c r="AK8" s="36" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>246</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>797</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="D9" t="s">
         <v>247</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" t="s">
         <v>248</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="H9" t="s">
         <v>249</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="L9" t="s">
         <v>251</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="P9" t="s">
         <v>252</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="Q9" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" t="s">
         <v>253</v>
       </c>
-      <c r="S9" s="45" t="s">
-        <v>786</v>
-      </c>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5" t="s">
+      <c r="S9" s="38" t="s">
+        <v>777</v>
+      </c>
+      <c r="X9" t="s">
         <v>255</v>
       </c>
-      <c r="Y9" s="9" t="s">
+      <c r="Y9" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" t="s">
         <v>256</v>
       </c>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="38" t="s">
         <v>509</v>
       </c>
-      <c r="AB9" s="5" t="s">
+      <c r="AB9" t="s">
         <v>257</v>
       </c>
-      <c r="AC9" s="43" t="s">
+      <c r="AC9" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="AF9" s="5" t="s">
+      <c r="AF9" t="s">
         <v>258</v>
       </c>
-      <c r="AG9" s="43" t="s">
+      <c r="AG9" s="36" t="s">
         <v>437</v>
       </c>
-      <c r="AJ9" s="5" t="s">
+      <c r="AJ9" t="s">
         <v>284</v>
       </c>
-      <c r="AK9" s="43" t="s">
+      <c r="AK9" s="36" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>260</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>798</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="D10" t="s">
         <v>261</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>262</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>263</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>700</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="I10" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="J10" t="s">
         <v>264</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" t="s">
         <v>265</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="P10" t="s">
         <v>266</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="Q10" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" t="s">
         <v>267</v>
       </c>
-      <c r="S10" s="45" t="s">
-        <v>787</v>
-      </c>
-      <c r="T10" s="5" t="s">
+      <c r="S10" s="38" t="s">
+        <v>778</v>
+      </c>
+      <c r="T10" t="s">
         <v>143</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" t="s">
         <v>144</v>
       </c>
-      <c r="W10" s="9" t="s">
+      <c r="W10" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" t="s">
         <v>268</v>
       </c>
-      <c r="Y10" s="9" t="s">
+      <c r="Y10" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" t="s">
         <v>269</v>
       </c>
-      <c r="AA10" s="45" t="s">
+      <c r="AA10" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="AB10" s="5" t="s">
+      <c r="AB10" t="s">
         <v>270</v>
       </c>
-      <c r="AC10" s="43" t="s">
+      <c r="AC10" s="36" t="s">
         <v>499</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" t="s">
         <v>271</v>
       </c>
-      <c r="AG10" s="43" t="s">
+      <c r="AG10" s="36" t="s">
         <v>439</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AJ10" t="s">
         <v>295</v>
       </c>
-      <c r="AK10" s="8" t="s">
+      <c r="AK10" s="6" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="H11" t="s">
         <v>276</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>277</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="L11" s="5" t="s">
+      <c r="K11" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="L11" t="s">
         <v>278</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5" t="s">
+      <c r="P11" t="s">
         <v>279</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" t="s">
         <v>280</v>
       </c>
-      <c r="S11" s="43" t="s">
+      <c r="S11" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" t="s">
         <v>241</v>
       </c>
-      <c r="U11" s="9" t="s">
+      <c r="U11" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" t="s">
         <v>195</v>
       </c>
-      <c r="W11" s="9" t="s">
+      <c r="W11" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" t="s">
         <v>281</v>
       </c>
-      <c r="Y11" s="9" t="s">
+      <c r="Y11" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" t="s">
         <v>282</v>
       </c>
-      <c r="AA11" s="43" t="s">
+      <c r="AA11" s="36" t="s">
         <v>507</v>
       </c>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AF11" s="5" t="s">
+      <c r="AF11" t="s">
         <v>283</v>
       </c>
-      <c r="AG11" s="43" t="s">
+      <c r="AG11" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="AJ11" s="5" t="s">
+      <c r="AJ11" t="s">
         <v>302</v>
       </c>
-      <c r="AK11" s="8" t="s">
+      <c r="AK11" s="6" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>285</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="D12" t="s">
         <v>286</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" t="s">
         <v>287</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="H12" t="s">
         <v>288</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" t="s">
         <v>289</v>
       </c>
-      <c r="K12" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="K12" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="L12" t="s">
         <v>290</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5" t="s">
+      <c r="R12" t="s">
         <v>291</v>
       </c>
-      <c r="S12" s="45" t="s">
-        <v>724</v>
-      </c>
-      <c r="T12" s="5" t="s">
+      <c r="S12" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="T12" t="s">
         <v>212</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>731</v>
-      </c>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5" t="s">
+      <c r="U12" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="X12" t="s">
         <v>292</v>
       </c>
-      <c r="Y12" s="9" t="s">
+      <c r="Y12" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="Z12" t="s">
         <v>293</v>
       </c>
-      <c r="AA12" s="45" t="s">
+      <c r="AA12" s="38" t="s">
         <v>510</v>
       </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AF12" s="6" t="s">
+      <c r="AF12" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AG12" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="AJ12" s="5" t="s">
+      <c r="AJ12" t="s">
         <v>308</v>
       </c>
-      <c r="AK12" s="8" t="s">
+      <c r="AK12" s="6" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>296</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>297</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" t="s">
         <v>298</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13" s="6" t="s">
+        <v>747</v>
+      </c>
+      <c r="H13" t="s">
         <v>299</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>699</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="J13" t="s">
         <v>300</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>741</v>
-      </c>
-      <c r="L13" s="5" t="s">
+      <c r="K13" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="L13" t="s">
         <v>301</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="10" t="s">
-        <v>723</v>
-      </c>
-      <c r="S13" s="45" t="s">
-        <v>725</v>
-      </c>
-      <c r="T13" s="5" t="s">
+      <c r="R13" t="s">
+        <v>714</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>716</v>
+      </c>
+      <c r="T13" t="s">
         <v>160</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="V13" s="5" t="s">
+      <c r="V13" t="s">
         <v>161</v>
       </c>
-      <c r="W13" s="9" t="s">
+      <c r="W13" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AF13" s="38" t="s">
+      <c r="AF13" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="AG13" s="43" t="s">
+      <c r="AG13" s="36" t="s">
         <v>582</v>
       </c>
-      <c r="AJ13" s="5" t="s">
+      <c r="AJ13" t="s">
         <v>312</v>
       </c>
-      <c r="AK13" s="8" t="s">
+      <c r="AK13" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>303</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>802</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="D14" t="s">
         <v>304</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="F14" t="s">
         <v>305</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="H14" t="s">
         <v>306</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>698</v>
-      </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="J14" t="s">
         <v>307</v>
       </c>
-      <c r="K14" s="9" t="s">
-        <v>742</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AF14" s="6"/>
-      <c r="AJ14" s="5" t="s">
+      <c r="K14" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="AF14" s="4"/>
+      <c r="AJ14" t="s">
         <v>316</v>
       </c>
-      <c r="AK14" s="43" t="s">
+      <c r="AK14" s="36" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="H15" t="s">
         <v>310</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="9" t="s">
-        <v>743</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AJ15" s="10" t="s">
+      <c r="K15" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="AJ15" t="s">
         <v>545</v>
       </c>
-      <c r="AK15" s="43" t="s">
+      <c r="AK15" s="36" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" t="s">
         <v>313</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="H16" t="s">
         <v>314</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" t="s">
         <v>315</v>
       </c>
-      <c r="K16" s="9" t="s">
-        <v>744</v>
-      </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AJ16" s="10" t="s">
+      <c r="K16" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>546</v>
       </c>
-      <c r="AK16" s="43" t="s">
+      <c r="AK16" s="36" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
+      <c r="F17" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="H17" t="s">
         <v>318</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>319</v>
       </c>
-      <c r="K17" s="9" t="s">
-        <v>745</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AJ17" s="10" t="s">
+      <c r="K17" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>592</v>
       </c>
-      <c r="AK17" s="43" t="s">
+      <c r="AK17" s="36" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5" t="s">
+      <c r="F18" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="H18" s="5" t="s">
+      <c r="G18" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="H18" t="s">
         <v>321</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" t="s">
         <v>322</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AJ18" s="10" t="s">
+      <c r="K18" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>547</v>
       </c>
-      <c r="AK18" s="43" t="s">
+      <c r="AK18" s="36" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5" t="s">
+      <c r="F19" t="s">
         <v>323</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="H19" s="5" t="s">
+      <c r="G19" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="H19" t="s">
         <v>324</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>701</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="J19" t="s">
         <v>325</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AJ19" s="10" t="s">
+      <c r="AJ19" t="s">
         <v>561</v>
       </c>
-      <c r="AK19" s="43" t="s">
+      <c r="AK19" s="36" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
+      <c r="F20" t="s">
         <v>326</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>327</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AJ20" s="10" t="s">
+      <c r="AJ20" t="s">
         <v>598</v>
       </c>
-      <c r="AK20" s="43" t="s">
+      <c r="AK20" s="36" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5" t="s">
+      <c r="F21" t="s">
         <v>328</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="H21" s="5" t="s">
+      <c r="G21" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="H21" t="s">
         <v>329</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AJ21" s="10" t="s">
+      <c r="AJ21" t="s">
         <v>599</v>
       </c>
-      <c r="AK21" s="43" t="s">
+      <c r="AK21" s="36" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>330</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AJ22" s="16" t="s">
+      <c r="AJ22" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="AK22" s="43" t="s">
+      <c r="AK22" s="36" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="70" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>331</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="J23" s="16" t="s">
-        <v>702</v>
-      </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AJ23" s="20" t="s">
+      <c r="J23" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="AJ23" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="AK23" s="9" t="s">
+      <c r="AK23" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>332</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AJ24" s="16" t="s">
+      <c r="I24" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="AK24" s="9" t="s">
+      <c r="AK24" s="6" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
       <c r="H25" t="s">
         <v>333</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AJ25" s="16" t="s">
+      <c r="AJ25" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="AK25" s="9" t="s">
+      <c r="AK25" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="56" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="56.6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
       <c r="H26" t="s">
         <v>334</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>704</v>
-      </c>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AJ26" s="37" t="s">
+      <c r="I26" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="AJ26" s="30" t="s">
         <v>611</v>
       </c>
-      <c r="AK26" s="9" t="s">
+      <c r="AK26" s="6" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="39" t="s">
-        <v>705</v>
-      </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39" t="s">
-        <v>706</v>
-      </c>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="39" t="s">
-        <v>707</v>
-      </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39" t="s">
-        <v>708</v>
-      </c>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AJ28" s="7" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="AJ29" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="AK29" s="9" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="AJ30" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="AK30" s="9" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="AJ32" s="7" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="33" spans="36:37" x14ac:dyDescent="0.3">
-      <c r="AJ33" s="7" t="s">
-        <v>927</v>
-      </c>
-      <c r="AK33" s="9" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="34" spans="36:37" x14ac:dyDescent="0.3">
-      <c r="AJ34" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="AK34" s="9" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="35" spans="36:37" x14ac:dyDescent="0.3">
-      <c r="AJ35" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="AK35" s="9" t="s">
-        <v>931</v>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="H27" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="H28" s="32" t="s">
+        <v>698</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32" t="s">
+        <v>699</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AJ29" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="AK29" s="6" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AJ30" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="AK30" s="6" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AJ32" s="5" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="33" spans="36:37" x14ac:dyDescent="0.35">
+      <c r="AJ33" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="AK33" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="34" spans="36:37" x14ac:dyDescent="0.35">
+      <c r="AJ34" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="AK34" s="6" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -7688,46 +7331,46 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="23.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.1640625" customWidth="1"/>
-    <col min="5" max="5" width="22.08203125" customWidth="1"/>
-    <col min="6" max="6" width="19.25" customWidth="1"/>
-    <col min="7" max="7" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="3.2109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.0703125" customWidth="1"/>
+    <col min="6" max="6" width="19.2109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="15" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>579</v>
       </c>
       <c r="E3" t="s">
@@ -7745,90 +7388,90 @@
       <c r="I3" t="s">
         <v>343</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="36" t="s">
         <v>567</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="36" t="s">
         <v>563</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="5" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>905</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="5" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="13" t="s">
         <v>606</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>899</v>
+      <c r="D8" s="5" t="s">
+        <v>890</v>
       </c>
       <c r="E8" t="s">
         <v>348</v>
@@ -7836,39 +7479,39 @@
       <c r="F8" t="s">
         <v>349</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="5" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>898</v>
+      <c r="D9" s="5" t="s">
+        <v>889</v>
       </c>
       <c r="E9" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>900</v>
+      <c r="D10" s="5" t="s">
+        <v>891</v>
       </c>
       <c r="E10" t="s">
         <v>352</v>
@@ -7880,49 +7523,49 @@
         <v>354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="41" t="s">
         <v>626</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="53" t="s">
-        <v>901</v>
+      <c r="D11" s="44" t="s">
+        <v>892</v>
       </c>
       <c r="E11" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="70.75" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="40" t="s">
         <v>634</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="33" t="s">
         <v>627</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>904</v>
+      <c r="D13" s="5" t="s">
+        <v>895</v>
       </c>
       <c r="E13" t="s">
         <v>130</v>
@@ -7945,704 +7588,704 @@
       <c r="K13" t="s">
         <v>357</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="5" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="5" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="D15" s="5" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>823</v>
+      <c r="E17" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>814</v>
       </c>
       <c r="G17" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="112" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+    <row r="18" spans="1:12" ht="113.15" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="17" t="s">
         <v>642</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>829</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>831</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>830</v>
-      </c>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-    </row>
-    <row r="19" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="D18" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
         <v>2</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="37" t="s">
         <v>643</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>906</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>807</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>3</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>823</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>4</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>824</v>
       </c>
-      <c r="F19" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="G19" s="29" t="s">
+      <c r="F21" s="19"/>
+      <c r="G21" s="24" t="s">
+        <v>779</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K21" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>5</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="E22" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-    </row>
-    <row r="20" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
-        <v>3</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>645</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>907</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>646</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>832</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>647</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="1:12" ht="104" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
-        <v>4</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>578</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="F22" s="15"/>
+      <c r="G22" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J22" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>6</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="15" t="s">
+        <v>655</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <v>7</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>827</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="24" t="s">
+        <v>657</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>658</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="J24" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" ht="212.15" x14ac:dyDescent="0.35">
+      <c r="A25" s="15">
+        <v>8</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>884</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>825</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>885</v>
+      </c>
+      <c r="J25" s="14" t="s">
+        <v>887</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
+        <v>9</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K26" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
+        <v>10</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>662</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>663</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J27" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" ht="99.45" x14ac:dyDescent="0.35">
+      <c r="A28" s="15">
+        <v>11</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>666</v>
+      </c>
+      <c r="E28" s="18"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="J28" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="K28" s="20" t="s">
+        <v>649</v>
+      </c>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" ht="169.75" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
+        <v>12</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>667</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>816</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="24" t="s">
+        <v>688</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
+        <v>13</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>826</v>
       </c>
-      <c r="E21" s="25" t="s">
-        <v>833</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="31" t="s">
-        <v>788</v>
-      </c>
-      <c r="H21" s="27"/>
-      <c r="I21" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="J21" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="1:12" ht="104" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
-        <v>5</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>365</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>908</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>650</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="H22" s="27" t="s">
-        <v>651</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="L22" s="27"/>
-    </row>
-    <row r="23" spans="1:12" ht="42" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
-        <v>6</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>654</v>
-      </c>
-      <c r="E23" s="33"/>
-      <c r="F23" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12" ht="84" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
-        <v>7</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>656</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>909</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>828</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>836</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>658</v>
-      </c>
-      <c r="I24" s="21" t="s">
-        <v>638</v>
-      </c>
-      <c r="J24" s="21" t="s">
-        <v>639</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>892</v>
-      </c>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="1:12" ht="196" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
-        <v>8</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>659</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>910</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>893</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>834</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G25" s="31" t="s">
-        <v>805</v>
-      </c>
-      <c r="H25" s="26" t="s">
-        <v>640</v>
-      </c>
-      <c r="I25" s="26" t="s">
-        <v>894</v>
-      </c>
-      <c r="J25" s="21" t="s">
-        <v>896</v>
-      </c>
-      <c r="K25" s="21" t="s">
-        <v>897</v>
-      </c>
-      <c r="L25" s="27" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="104" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
-        <v>9</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>660</v>
-      </c>
-      <c r="C26" s="24" t="s">
-        <v>911</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>827</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>661</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="L26" s="27"/>
-    </row>
-    <row r="27" spans="1:12" ht="104" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
-        <v>10</v>
-      </c>
-      <c r="B27" s="44" t="s">
-        <v>662</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>912</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>663</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="I27" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="J27" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="K27" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" spans="1:12" ht="104" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
-        <v>11</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>664</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>666</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="I28" s="21" t="s">
-        <v>648</v>
-      </c>
-      <c r="J28" s="21" t="s">
-        <v>895</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>649</v>
-      </c>
-      <c r="L28" s="27"/>
-    </row>
-    <row r="29" spans="1:12" ht="168" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
-        <v>12</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>667</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
-        <v>825</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>671</v>
-      </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
-        <v>13</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>576</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>835</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" spans="1:12" ht="28" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="A31" s="15">
         <v>14</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="21" t="s">
         <v>669</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="D31" s="25" t="s">
+      <c r="D31" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="E31" s="33"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E31" s="26"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>15</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="D32" s="14" t="s">
+      <c r="C32" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="58" t="s">
-        <v>884</v>
-      </c>
-      <c r="B35" s="55" t="s">
+    <row r="35" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="50" t="s">
+        <v>875</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>873</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="50"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="50"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="C35" s="25" t="s">
-        <v>848</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>890</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="E37" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="50"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="50"/>
+      <c r="B39" s="48"/>
+      <c r="C39" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="50"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="50"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="47" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="51" t="s">
+      <c r="D41" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="E41" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="50"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="5" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="50"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="5" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="50"/>
+      <c r="B44" s="48"/>
+      <c r="C44" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="50"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="50"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="50"/>
+      <c r="B47" s="49" t="s">
+        <v>874</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="50"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="5" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="58"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="51" t="s">
-        <v>850</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>891</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>875</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="51" t="s">
-        <v>851</v>
-      </c>
-      <c r="D38" s="7" t="s">
+      <c r="D48" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="50"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="58"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="51" t="s">
-        <v>852</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="51" t="s">
-        <v>854</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="58"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="55" t="s">
-        <v>856</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>858</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="58"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="7" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="58"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="7" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="58"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="52" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="50"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D50" s="5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="50"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="5" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="58"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="52" t="s">
+      <c r="D51" s="5" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="50"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="50"/>
+      <c r="B53" s="49"/>
+      <c r="D53" s="5" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="50"/>
+      <c r="B54" s="49"/>
+      <c r="D54" s="5" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D56" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="D45" s="7" t="s">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D57" s="5" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D58" s="5" t="s">
         <v>879</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="58"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="58"/>
-      <c r="B47" s="57" t="s">
-        <v>883</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>864</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="58"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="52" t="s">
-        <v>866</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>867</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="58"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="52" t="s">
-        <v>868</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>874</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="58"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="52" t="s">
-        <v>871</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="58"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="52" t="s">
-        <v>872</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="58"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="52" t="s">
-        <v>877</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="58"/>
-      <c r="B53" s="57"/>
-      <c r="D53" s="7" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="58"/>
-      <c r="B54" s="57"/>
-      <c r="D54" s="7" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D56" s="7" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D57" s="7" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D58" s="7" t="s">
-        <v>888</v>
       </c>
     </row>
   </sheetData>
@@ -8661,199 +8304,145 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07120975-DCD2-44DB-890E-43FB0017A6EE}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="35"/>
-    <col min="2" max="2" width="20.1640625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="35"/>
-    <col min="4" max="4" width="34.4140625" style="35" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="35"/>
-    <col min="6" max="6" width="27.25" style="35" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="35"/>
-    <col min="8" max="8" width="29.75" style="35" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="35" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="28"/>
+    <col min="2" max="2" width="20.140625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="28"/>
+    <col min="4" max="4" width="34.42578125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="28"/>
+    <col min="6" max="6" width="27.2109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="28"/>
+    <col min="8" max="8" width="29.7109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="28" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="51" t="s">
         <v>673</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="51" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="B3" s="13" t="s">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="B3" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="8" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.3" x14ac:dyDescent="0.35">
+      <c r="D4" s="29" t="s">
+        <v>679</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="D5" s="29" t="s">
+        <v>680</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>926</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="127.3" x14ac:dyDescent="0.35">
+      <c r="D6" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="D7" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>930</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>929</v>
+      </c>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" ht="84.9" x14ac:dyDescent="0.35">
+      <c r="D8" s="29" t="s">
+        <v>683</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>931</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="56.6" x14ac:dyDescent="0.35">
+      <c r="D9" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="G3" s="35">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28" x14ac:dyDescent="0.3">
-      <c r="G4" s="35">
-        <v>2</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="36" t="s">
-        <v>686</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>681</v>
-      </c>
-      <c r="G5" s="35">
-        <v>3</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>918</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>925</v>
-      </c>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" ht="70" x14ac:dyDescent="0.3">
-      <c r="D6" s="36" t="s">
-        <v>687</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>691</v>
-      </c>
-      <c r="G6" s="35">
-        <v>4</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" ht="112" x14ac:dyDescent="0.3">
-      <c r="D7" s="13" t="s">
-        <v>689</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>679</v>
-      </c>
-      <c r="G7" s="35">
-        <v>5</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="D8" s="13" t="s">
-        <v>688</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>680</v>
-      </c>
-      <c r="G8" s="35">
-        <v>6</v>
-      </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:11" ht="84" x14ac:dyDescent="0.3">
-      <c r="D9" s="36" t="s">
-        <v>690</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>692</v>
-      </c>
-      <c r="G9" s="35">
-        <v>7</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="56" x14ac:dyDescent="0.3">
-      <c r="D10" s="13" t="s">
-        <v>696</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>684</v>
-      </c>
-      <c r="G10" s="35">
-        <v>8</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="H9" s="8" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="F10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="D11" s="8" t="s">
+        <v>924</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="D12" s="46" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="F11" s="13" t="s">
-        <v>682</v>
-      </c>
-      <c r="G11" s="35">
-        <v>9</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="D12" s="13" t="s">
-        <v>938</v>
-      </c>
-      <c r="G12" s="35">
-        <v>10</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="42" x14ac:dyDescent="0.3">
-      <c r="D13" s="60" t="s">
-        <v>937</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>709</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>920</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F14" s="41"/>
+      <c r="F12" s="34" t="s">
+        <v>700</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F13" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I5:K5"/>
-  </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8869,22 +8458,22 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>616</v>
       </c>
     </row>
@@ -8903,78 +8492,78 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>625</v>
       </c>
     </row>
@@ -8993,11 +8582,11 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
     </row>
   </sheetData>
